--- a/城市名ID及高校坐标.xlsx
+++ b/城市名ID及高校坐标.xlsx
@@ -8186,8 +8186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
